--- a/Feed.xlsx
+++ b/Feed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvaud\OneDrive\Bureau\Orbitways Daily News\v8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvaud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53B4462-D6B2-45A4-BC29-C33A26D45ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB93BA1A-E36B-42A8-B5DB-7A0F7D282BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="198">
   <si>
     <t>RSS_FEEDS</t>
   </si>
@@ -597,6 +597,36 @@
   </si>
   <si>
     <t>C:\Users\jvaud\OneDrive\Bureau\Orbitways Daily News\v8\satnews_news.xml</t>
+  </si>
+  <si>
+    <t>Space Armor</t>
+  </si>
+  <si>
+    <t>Debris shield</t>
+  </si>
+  <si>
+    <t>Atomic-6</t>
+  </si>
+  <si>
+    <t>Orbital debris</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>IRIS2</t>
+  </si>
+  <si>
+    <t>Hemeria</t>
+  </si>
+  <si>
+    <t>French space command</t>
+  </si>
+  <si>
+    <t>Commandement de l'espace</t>
+  </si>
+  <si>
+    <t>Institutional</t>
   </si>
 </sst>
 </file>
@@ -924,10 +954,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1940,7 +1970,7 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1948,7 +1978,7 @@
         <v>118</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1980,7 +2010,7 @@
         <v>122</v>
       </c>
       <c r="D97" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1988,7 +2018,7 @@
         <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,6 +2307,78 @@
       </c>
       <c r="D134" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D138" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D139" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D140" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D141" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D142" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D143" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Feed.xlsx
+++ b/Feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvaud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB93BA1A-E36B-42A8-B5DB-7A0F7D282BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5774CEFB-4FC1-469D-AF92-757A150FF4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="225">
   <si>
     <t>RSS_FEEDS</t>
   </si>
@@ -627,6 +627,87 @@
   </si>
   <si>
     <t>Institutional</t>
+  </si>
+  <si>
+    <t>satellite operators</t>
+  </si>
+  <si>
+    <t>satellite manufacturing</t>
+  </si>
+  <si>
+    <t>space component manufacturing</t>
+  </si>
+  <si>
+    <t>constellations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optical communication </t>
+  </si>
+  <si>
+    <t>IOD</t>
+  </si>
+  <si>
+    <t>IOV</t>
+  </si>
+  <si>
+    <t>Hosted payload</t>
+  </si>
+  <si>
+    <t>contracts</t>
+  </si>
+  <si>
+    <t>APAC</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>funding</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>broadband</t>
+  </si>
+  <si>
+    <t>launch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deployment </t>
+  </si>
+  <si>
+    <t>filings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Leo </t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>space agency</t>
+  </si>
+  <si>
+    <t>space agencies</t>
+  </si>
+  <si>
+    <t>institutional</t>
+  </si>
+  <si>
+    <t>Satellite Manufacturers</t>
+  </si>
+  <si>
+    <t>Satellite Services</t>
+  </si>
+  <si>
+    <t>Finance &amp; Deals</t>
+  </si>
+  <si>
+    <t>Launches</t>
   </si>
 </sst>
 </file>
@@ -954,10 +1035,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2378,6 +2459,190 @@
         <v>196</v>
       </c>
       <c r="D143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D144" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D145" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D146" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D147" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D148" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D149" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D150" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D151" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D152" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D153" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D154" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D155" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D156" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D157" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D158" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D160" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C161" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D161" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D162" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D163" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D164" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D165" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D166" t="s">
         <v>197</v>
       </c>
     </row>

--- a/Feed.xlsx
+++ b/Feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvaud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5774CEFB-4FC1-469D-AF92-757A150FF4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A3FE17-2BED-4428-9745-62C93F47B666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="227">
   <si>
     <t>RSS_FEEDS</t>
   </si>
@@ -593,12 +593,6 @@
     <t>https://feeds.arstechnica.com/arstechnica/index</t>
   </si>
   <si>
-    <t>C:\Users\jvaud\OneDrive\Bureau\Orbitways Daily News\v8\payloadspace_news.xml</t>
-  </si>
-  <si>
-    <t>C:\Users\jvaud\OneDrive\Bureau\Orbitways Daily News\v8\satnews_news.xml</t>
-  </si>
-  <si>
     <t>Space Armor</t>
   </si>
   <si>
@@ -708,6 +702,18 @@
   </si>
   <si>
     <t>Launches</t>
+  </si>
+  <si>
+    <t>Hale</t>
+  </si>
+  <si>
+    <t>Earth observation</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Weather</t>
   </si>
 </sst>
 </file>
@@ -1035,10 +1041,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1603,12 +1609,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A38" s="10"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="7" t="s">
         <v>172</v>
       </c>
@@ -1617,12 +1619,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A39" s="10"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="7" t="s">
         <v>67</v>
       </c>
@@ -2051,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2059,7 +2057,7 @@
         <v>118</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2091,7 +2089,7 @@
         <v>122</v>
       </c>
       <c r="D97" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2099,7 +2097,7 @@
         <v>123</v>
       </c>
       <c r="D98" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2392,7 +2390,7 @@
     </row>
     <row r="135" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
@@ -2400,7 +2398,7 @@
     </row>
     <row r="136" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D136" t="s">
         <v>6</v>
@@ -2408,7 +2406,7 @@
     </row>
     <row r="137" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D137" t="s">
         <v>6</v>
@@ -2416,7 +2414,7 @@
     </row>
     <row r="138" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C138" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D138" t="s">
         <v>87</v>
@@ -2424,15 +2422,15 @@
     </row>
     <row r="139" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D139" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D140" t="s">
         <v>149</v>
@@ -2440,7 +2438,7 @@
     </row>
     <row r="141" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D141" t="s">
         <v>149</v>
@@ -2448,151 +2446,151 @@
     </row>
     <row r="142" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D142" t="s">
         <v>195</v>
-      </c>
-      <c r="D142" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="143" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D143" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D144" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="145" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D145" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D146" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D147" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="148" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D148" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="149" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D149" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="150" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D150" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D151" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="152" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D152" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="153" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D153" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="154" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D154" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D155" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="156" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D156" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="157" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D157" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D158" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="159" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D159" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="160" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C160" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D160" t="s">
         <v>149</v>
@@ -2600,7 +2598,7 @@
     </row>
     <row r="161" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C161" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D161" t="s">
         <v>149</v>
@@ -2608,7 +2606,7 @@
     </row>
     <row r="162" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D162" t="s">
         <v>149</v>
@@ -2616,34 +2614,66 @@
     </row>
     <row r="163" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D163" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D164" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D165" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D166" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D168" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D169" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D170" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Feed.xlsx
+++ b/Feed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvaud\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFA9E43A-D984-4933-8AEE-CE5D460D0B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC9D735-68F8-48A0-8069-19A5305088DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="228">
   <si>
     <t>RSS_FEEDS</t>
   </si>
@@ -690,6 +690,33 @@
   </si>
   <si>
     <t>Weather</t>
+  </si>
+  <si>
+    <t>Look-up</t>
+  </si>
+  <si>
+    <t>Look Up</t>
+  </si>
+  <si>
+    <t>SORASYS</t>
+  </si>
+  <si>
+    <t>Congested</t>
+  </si>
+  <si>
+    <t>Congestion</t>
+  </si>
+  <si>
+    <t>Orbital Environment</t>
+  </si>
+  <si>
+    <t>Satellite Insurers</t>
+  </si>
+  <si>
+    <t>Insurers</t>
+  </si>
+  <si>
+    <t>Insurance</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1041,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B170"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1598,74 +1625,80 @@
       <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D45" t="s">
         <v>42</v>
@@ -1676,7 +1709,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
         <v>42</v>
@@ -1687,7 +1720,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
         <v>42</v>
@@ -1698,7 +1731,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
         <v>42</v>
@@ -1709,7 +1742,7 @@
         <v>42</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
@@ -1720,7 +1753,7 @@
         <v>42</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
         <v>42</v>
@@ -1731,7 +1764,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
         <v>42</v>
@@ -1742,7 +1775,7 @@
         <v>42</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
         <v>42</v>
@@ -1753,7 +1786,7 @@
         <v>42</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
         <v>42</v>
@@ -1764,7 +1797,7 @@
         <v>42</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
         <v>42</v>
@@ -1775,7 +1808,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="D55" t="s">
         <v>42</v>
@@ -1786,7 +1819,7 @@
         <v>42</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D56" t="s">
         <v>42</v>
@@ -1797,7 +1830,7 @@
         <v>42</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
         <v>42</v>
@@ -1808,7 +1841,7 @@
         <v>42</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
         <v>42</v>
@@ -1819,7 +1852,7 @@
         <v>42</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
@@ -1830,7 +1863,7 @@
         <v>42</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
         <v>42</v>
@@ -1841,7 +1874,7 @@
         <v>42</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="D61" t="s">
         <v>42</v>
@@ -1849,68 +1882,68 @@
     </row>
     <row r="62" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1918,7 +1951,7 @@
         <v>79</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
         <v>79</v>
@@ -1929,7 +1962,7 @@
         <v>79</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D69" t="s">
         <v>79</v>
@@ -1940,7 +1973,7 @@
         <v>79</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
         <v>79</v>
@@ -1951,7 +1984,7 @@
         <v>79</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D71" t="s">
         <v>79</v>
@@ -1962,7 +1995,7 @@
         <v>79</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D72" t="s">
         <v>79</v>
@@ -1973,7 +2006,7 @@
         <v>79</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D73" t="s">
         <v>79</v>
@@ -1984,7 +2017,7 @@
         <v>79</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D74" t="s">
         <v>79</v>
@@ -1995,7 +2028,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D75" t="s">
         <v>79</v>
@@ -2006,7 +2039,7 @@
         <v>79</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
         <v>79</v>
@@ -2017,7 +2050,7 @@
         <v>79</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
@@ -2028,7 +2061,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D78" t="s">
         <v>79</v>
@@ -2039,7 +2072,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
         <v>79</v>
@@ -2050,7 +2083,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D80" t="s">
         <v>79</v>
@@ -2061,7 +2094,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D81" t="s">
         <v>79</v>
@@ -2069,68 +2102,68 @@
     </row>
     <row r="82" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D82" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D83" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D84" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2138,7 +2171,7 @@
         <v>100</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D88" t="s">
         <v>100</v>
@@ -2149,7 +2182,7 @@
         <v>100</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
         <v>100</v>
@@ -2160,7 +2193,7 @@
         <v>100</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D90" t="s">
         <v>100</v>
@@ -2171,7 +2204,7 @@
         <v>100</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
         <v>100</v>
@@ -2179,24 +2212,24 @@
     </row>
     <row r="92" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2204,7 +2237,7 @@
         <v>100</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D94" t="s">
         <v>100</v>
@@ -2215,7 +2248,7 @@
         <v>100</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
         <v>100</v>
@@ -2226,7 +2259,7 @@
         <v>100</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D96" t="s">
         <v>100</v>
@@ -2234,134 +2267,134 @@
     </row>
     <row r="97" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>187</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="D98" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>117</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="D99" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>117</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="D100" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>117</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>119</v>
+        <v>100</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D104" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D105" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D106" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D107" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2369,7 +2402,7 @@
         <v>117</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D109" t="s">
         <v>117</v>
@@ -2380,7 +2413,7 @@
         <v>117</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D110" t="s">
         <v>117</v>
@@ -2388,112 +2421,112 @@
     </row>
     <row r="111" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D113" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D114" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D115" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D116" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D117" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D118" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D119" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D120" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,7 +2534,7 @@
         <v>43</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D121" t="s">
         <v>43</v>
@@ -2509,398 +2542,398 @@
     </row>
     <row r="122" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D122" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D123" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D124" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D125" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D126" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D127" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D128" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D129" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D130" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="D131" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="D132" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D133" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D134" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="D135" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="D136" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="D137" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="D138" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="D139" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D140" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D141" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="D142" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D143" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D144" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D145" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D146" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D147" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D148" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D149" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D150" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D151" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D152" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="153" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D153" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="154" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D154" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D155" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D156" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D157" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2908,7 +2941,7 @@
         <v>211</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D158" t="s">
         <v>211</v>
@@ -2916,123 +2949,123 @@
     </row>
     <row r="159" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D159" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D160" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D161" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
     </row>
     <row r="162" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D162" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
     </row>
     <row r="163" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D163" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="164" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D164" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D165" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D166" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="167" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D167" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
     </row>
     <row r="168" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D168" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
     </row>
     <row r="169" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D169" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3040,9 +3073,119 @@
         <v>141</v>
       </c>
       <c r="C170" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D170" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>141</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D171" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>141</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D172" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>211</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D173" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>187</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D174" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>187</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D175" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>187</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D176" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>141</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D178" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>141</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D179" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>141</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D180" t="s">
         <v>141</v>
       </c>
     </row>
